--- a/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -1675,13 +1675,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10080</v>
+        <v>10081</v>
       </c>
       <c r="D25" t="n">
         <v>1062</v>
       </c>
       <c r="E25" t="n">
-        <v>50559405</v>
+        <v>50561588</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -6163,13 +6163,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>15701</v>
+        <v>15702</v>
       </c>
       <c r="D113" t="n">
         <v>2994</v>
       </c>
       <c r="E113" t="n">
-        <v>70534112</v>
+        <v>70535612</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -32887,13 +32887,13 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>14147</v>
+        <v>14148</v>
       </c>
       <c r="D637" t="n">
         <v>1520</v>
       </c>
       <c r="E637" t="n">
-        <v>82532975</v>
+        <v>82597689</v>
       </c>
       <c r="F637" t="inlineStr">
         <is>
@@ -34570,13 +34570,13 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>22064</v>
+        <v>22065</v>
       </c>
       <c r="D670" t="n">
         <v>2291</v>
       </c>
       <c r="E670" t="n">
-        <v>132119827</v>
+        <v>132121290</v>
       </c>
       <c r="F670" t="inlineStr">
         <is>
@@ -42220,13 +42220,13 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>17567</v>
+        <v>17568</v>
       </c>
       <c r="D820" t="n">
         <v>2071</v>
       </c>
       <c r="E820" t="n">
-        <v>110705530</v>
+        <v>110721160</v>
       </c>
       <c r="F820" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108651</v>
+        <v>108655</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>562114887</v>
+        <v>562170041</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182291</v>
+        <v>182293</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649126778</v>
+        <v>1649138188</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23235</v>
+        <v>23236</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82768537</v>
+        <v>82778537</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183940</v>
+        <v>183942</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554305688</v>
+        <v>554325688</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51332</v>
+        <v>51339</v>
       </c>
       <c r="D859" t="n">
         <v>6433</v>
       </c>
       <c r="E859" t="n">
-        <v>424428262</v>
+        <v>424488758</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34661</v>
+        <v>34662</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70098578</v>
+        <v>70101690</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115010</v>
+        <v>115013</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418886311</v>
+        <v>418891784</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -46096,13 +46096,13 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>23636</v>
+        <v>23637</v>
       </c>
       <c r="D896" t="n">
         <v>3068</v>
       </c>
       <c r="E896" t="n">
-        <v>70458315</v>
+        <v>70459175</v>
       </c>
       <c r="F896" t="inlineStr">
         <is>
@@ -46453,13 +46453,13 @@
         </is>
       </c>
       <c r="C903" t="n">
-        <v>26102</v>
+        <v>26103</v>
       </c>
       <c r="D903" t="n">
         <v>5587</v>
       </c>
       <c r="E903" t="n">
-        <v>118266018</v>
+        <v>118290399</v>
       </c>
       <c r="F903" t="inlineStr">
         <is>
@@ -46504,13 +46504,13 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>75232</v>
+        <v>75233</v>
       </c>
       <c r="D904" t="n">
         <v>8098</v>
       </c>
       <c r="E904" t="n">
-        <v>168661643</v>
+        <v>168711786</v>
       </c>
       <c r="F904" t="inlineStr">
         <is>
@@ -48289,13 +48289,13 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>22814</v>
+        <v>22816</v>
       </c>
       <c r="D939" t="n">
         <v>2673</v>
       </c>
       <c r="E939" t="n">
-        <v>157396477</v>
+        <v>157448092</v>
       </c>
       <c r="F939" t="inlineStr">
         <is>
@@ -49156,13 +49156,13 @@
         </is>
       </c>
       <c r="C956" t="n">
-        <v>19710</v>
+        <v>19711</v>
       </c>
       <c r="D956" t="n">
         <v>2625</v>
       </c>
       <c r="E956" t="n">
-        <v>66163080</v>
+        <v>66197569</v>
       </c>
       <c r="F956" t="inlineStr">
         <is>
@@ -83275,13 +83275,13 @@
         </is>
       </c>
       <c r="C1625" t="n">
-        <v>41900</v>
+        <v>41902</v>
       </c>
       <c r="D1625" t="n">
         <v>8880</v>
       </c>
       <c r="E1625" t="n">
-        <v>114577385</v>
+        <v>114581524</v>
       </c>
       <c r="F1625" t="inlineStr">
         <is>
@@ -84040,13 +84040,13 @@
         </is>
       </c>
       <c r="C1640" t="n">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D1640" t="n">
         <v>247</v>
       </c>
       <c r="E1640" t="n">
-        <v>2896576</v>
+        <v>2903516</v>
       </c>
       <c r="F1640" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -5959,13 +5959,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>35432</v>
+        <v>35434</v>
       </c>
       <c r="D109" t="n">
         <v>3825</v>
       </c>
       <c r="E109" t="n">
-        <v>286219122</v>
+        <v>286313376</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -9376,13 +9376,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>41189</v>
+        <v>41190</v>
       </c>
       <c r="D176" t="n">
         <v>5280</v>
       </c>
       <c r="E176" t="n">
-        <v>86426076</v>
+        <v>86427219</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -10549,13 +10549,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>43531</v>
+        <v>43533</v>
       </c>
       <c r="D199" t="n">
         <v>5147</v>
       </c>
       <c r="E199" t="n">
-        <v>117976065</v>
+        <v>117977955</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -17281,13 +17281,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="D331" t="n">
         <v>422</v>
       </c>
       <c r="E331" t="n">
-        <v>10668168</v>
+        <v>10675738</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -18862,13 +18862,13 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>4889</v>
+        <v>4890</v>
       </c>
       <c r="D362" t="n">
         <v>853</v>
       </c>
       <c r="E362" t="n">
-        <v>8570881</v>
+        <v>8574459</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
@@ -24625,13 +24625,13 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>5621</v>
+        <v>5622</v>
       </c>
       <c r="D475" t="n">
         <v>1221</v>
       </c>
       <c r="E475" t="n">
-        <v>20241769</v>
+        <v>20251769</v>
       </c>
       <c r="F475" t="inlineStr">
         <is>
@@ -34570,13 +34570,13 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>22065</v>
+        <v>22066</v>
       </c>
       <c r="D670" t="n">
         <v>2291</v>
       </c>
       <c r="E670" t="n">
-        <v>132121290</v>
+        <v>132129255</v>
       </c>
       <c r="F670" t="inlineStr">
         <is>
@@ -36712,13 +36712,13 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>5643</v>
+        <v>5644</v>
       </c>
       <c r="D712" t="n">
         <v>1176</v>
       </c>
       <c r="E712" t="n">
-        <v>8175652</v>
+        <v>8176193</v>
       </c>
       <c r="F712" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182293</v>
+        <v>182299</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1649138188</v>
+        <v>1649169877</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183942</v>
+        <v>183947</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554325688</v>
+        <v>554376197</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>115013</v>
+        <v>115014</v>
       </c>
       <c r="D862" t="n">
         <v>14332</v>
       </c>
       <c r="E862" t="n">
-        <v>418891784</v>
+        <v>418896984</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127508</v>
+        <v>127509</v>
       </c>
       <c r="D887" t="n">
         <v>13775</v>
       </c>
       <c r="E887" t="n">
-        <v>277464187</v>
+        <v>277466539</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -45892,13 +45892,13 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>25956</v>
+        <v>25958</v>
       </c>
       <c r="D892" t="n">
-        <v>5119</v>
+        <v>5120</v>
       </c>
       <c r="E892" t="n">
-        <v>67472362</v>
+        <v>67483898</v>
       </c>
       <c r="F892" t="inlineStr">
         <is>
@@ -46096,13 +46096,13 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>23637</v>
+        <v>23640</v>
       </c>
       <c r="D896" t="n">
         <v>3068</v>
       </c>
       <c r="E896" t="n">
-        <v>70459175</v>
+        <v>70473083</v>
       </c>
       <c r="F896" t="inlineStr">
         <is>
@@ -46810,13 +46810,13 @@
         </is>
       </c>
       <c r="C910" t="n">
-        <v>12341</v>
+        <v>12342</v>
       </c>
       <c r="D910" t="n">
         <v>1777</v>
       </c>
       <c r="E910" t="n">
-        <v>50125770</v>
+        <v>50126858</v>
       </c>
       <c r="F910" t="inlineStr">
         <is>
@@ -46963,13 +46963,13 @@
         </is>
       </c>
       <c r="C913" t="n">
-        <v>22150</v>
+        <v>22151</v>
       </c>
       <c r="D913" t="n">
         <v>2798</v>
       </c>
       <c r="E913" t="n">
-        <v>65002310</v>
+        <v>65006713</v>
       </c>
       <c r="F913" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>13104</v>
+        <v>13106</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>33016552</v>
+        <v>33021580</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -50023,13 +50023,13 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>11130</v>
+        <v>11131</v>
       </c>
       <c r="D973" t="n">
         <v>1314</v>
       </c>
       <c r="E973" t="n">
-        <v>44329558</v>
+        <v>44392226</v>
       </c>
       <c r="F973" t="inlineStr">
         <is>
@@ -55123,13 +55123,13 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>10716</v>
+        <v>10720</v>
       </c>
       <c r="D1073" t="n">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="E1073" t="n">
-        <v>34145006</v>
+        <v>34164067</v>
       </c>
       <c r="F1073" t="inlineStr">
         <is>
@@ -61090,13 +61090,13 @@
         </is>
       </c>
       <c r="C1190" t="n">
-        <v>14377</v>
+        <v>14379</v>
       </c>
       <c r="D1190" t="n">
         <v>2709</v>
       </c>
       <c r="E1190" t="n">
-        <v>47796211</v>
+        <v>47812608</v>
       </c>
       <c r="F1190" t="inlineStr">
         <is>
@@ -61243,13 +61243,13 @@
         </is>
       </c>
       <c r="C1193" t="n">
-        <v>22507</v>
+        <v>22508</v>
       </c>
       <c r="D1193" t="n">
         <v>2821</v>
       </c>
       <c r="E1193" t="n">
-        <v>68102181</v>
+        <v>68113387</v>
       </c>
       <c r="F1193" t="inlineStr">
         <is>
@@ -63385,13 +63385,13 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>9282</v>
+        <v>9283</v>
       </c>
       <c r="D1235" t="n">
         <v>1003</v>
       </c>
       <c r="E1235" t="n">
-        <v>46604534</v>
+        <v>46614534</v>
       </c>
       <c r="F1235" t="inlineStr">
         <is>
@@ -82102,13 +82102,13 @@
         </is>
       </c>
       <c r="C1602" t="n">
-        <v>47410</v>
+        <v>47412</v>
       </c>
       <c r="D1602" t="n">
         <v>8772</v>
       </c>
       <c r="E1602" t="n">
-        <v>161655984</v>
+        <v>161795775</v>
       </c>
       <c r="F1602" t="inlineStr">
         <is>
@@ -82663,13 +82663,13 @@
         </is>
       </c>
       <c r="C1613" t="n">
-        <v>25884</v>
+        <v>25885</v>
       </c>
       <c r="D1613" t="n">
         <v>4989</v>
       </c>
       <c r="E1613" t="n">
-        <v>50518234</v>
+        <v>50560278</v>
       </c>
       <c r="F1613" t="inlineStr">
         <is>
